--- a/Formulas.xlsx
+++ b/Formulas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\LT Builders &amp; Contracting Inc\wQuote\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aucius/projects/wquote/infra/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E36AB912-C4A0-4A47-9B2A-025A13E934E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0086895A-B53D-0B4C-AE36-367595E4A63A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="77">
   <si>
     <t>2x4</t>
   </si>
@@ -213,10 +213,88 @@
     <t>D12</t>
   </si>
   <si>
+    <t xml:space="preserve">H*SP     </t>
+  </si>
+  <si>
+    <t>TR</t>
+  </si>
+  <si>
+    <t>SW</t>
+  </si>
+  <si>
+    <t>Sbeam</t>
+  </si>
+  <si>
+    <t>Area 1</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Total Cost</t>
+  </si>
+  <si>
+    <t>Vem de outro calculo &gt;&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>Total with tax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H*SP    </t>
+  </si>
+  <si>
+    <t>Nao tem</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
+        <color rgb="FFFF3399"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4x4 da escada</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>= (TR) se Sbem&gt;1</t>
+    </r>
+  </si>
+  <si>
+    <t>3&gt;D</t>
+  </si>
+  <si>
+    <t>3&lt;=D&lt;=4</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2x6 da escada= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(2*SW)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
         <color rgb="FFFFC000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -252,17 +330,127 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>(ceil</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(W8*0.75)+5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ϕ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">     </t>
+    </r>
+  </si>
+  <si>
+    <t>treads * 10/12</t>
+  </si>
+  <si>
+    <t>totalRiser</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>(</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>L6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(W8*0.75)+5</t>
+      <t>+(dobro ou triplo de B6)+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
     </r>
     <r>
       <rPr>
@@ -272,6 +460,26 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>(ceil</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(W6*0.75)+5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>)</t>
     </r>
     <r>
@@ -323,6 +531,120 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>L10+(dobro ou triplo de B10)+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(ceil</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(W10*0.75)+5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ϕ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">     </t>
     </r>
   </si>
@@ -346,7 +668,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>L10+(dobro ou triplo de B10)+</t>
+      <t>L12+(dobro ou triplo de B12)+</t>
     </r>
     <r>
       <rPr>
@@ -366,7 +688,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(</t>
+      <t>(ceil</t>
     </r>
     <r>
       <rPr>
@@ -376,7 +698,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(W10*0.75)+5</t>
+      <t>(W12*0.75)+5</t>
     </r>
     <r>
       <rPr>
@@ -429,433 +751,33 @@
       </rPr>
       <t>)</t>
     </r>
-    <r>
-      <rPr>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2x12 da escada</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">     </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">H*SP     </t>
-  </si>
-  <si>
-    <t>TR</t>
-  </si>
-  <si>
-    <t>SW</t>
-  </si>
-  <si>
-    <t>Sbeam</t>
-  </si>
-  <si>
-    <t>Area 1</t>
-  </si>
-  <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>Total Cost</t>
-  </si>
-  <si>
-    <t>Vem de outro calculo &gt;&gt;&gt;&gt;</t>
-  </si>
-  <si>
-    <t>Total with tax</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>L6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>+(dobro ou triplo de B6)+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(W6*0.75)+5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ϕ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>L12+(dobro ou triplo de B12)+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(W12*0.75)+5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ϕ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">    </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">H*SP    </t>
-  </si>
-  <si>
-    <t>Nao tem</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2x12 da escada</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(TR*12/7)-1</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>round↑</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> * ((SW+1)round↑)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF3399"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4x4 da escada</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>= (TR) se Sbem&gt;1</t>
-    </r>
-  </si>
-  <si>
-    <t>3&gt;D</t>
-  </si>
-  <si>
-    <t>3&lt;=D&lt;=4</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2x6 da escada= </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(2*SW)</t>
-    </r>
+      <t>=hipotenusa(stringer) * ceil(SW+1)</t>
+    </r>
+  </si>
+  <si>
+    <t>hipotenusa=</t>
   </si>
 </sst>
 </file>
@@ -865,7 +787,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -950,14 +872,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF00B050"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1215,6 +1129,21 @@
     <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1232,21 +1161,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1535,48 +1449,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" customWidth="1"/>
+    <col min="7" max="7" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" customWidth="1"/>
     <col min="11" max="11" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
-    <col min="13" max="13" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.44140625" customWidth="1"/>
-    <col min="15" max="15" width="14.77734375" customWidth="1"/>
-    <col min="16" max="16" width="27.21875" customWidth="1"/>
-    <col min="17" max="17" width="11.109375" customWidth="1"/>
-    <col min="19" max="19" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.83203125" customWidth="1"/>
+    <col min="13" max="13" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5" customWidth="1"/>
+    <col min="15" max="15" width="14.83203125" customWidth="1"/>
+    <col min="16" max="16" width="27.1640625" customWidth="1"/>
+    <col min="17" max="17" width="11.1640625" customWidth="1"/>
+    <col min="19" max="19" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="19"/>
       <c r="B1" s="19"/>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
       <c r="H1" s="20"/>
-      <c r="L1" s="40" t="s">
+      <c r="L1" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1607,8 +1521,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="38" t="s">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A3" s="32" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1626,15 +1540,15 @@
       <c r="F3" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
       <c r="K3" s="8"/>
       <c r="L3" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="38"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A4" s="32"/>
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1650,15 +1564,15 @@
       <c r="F4" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
       <c r="K4" s="8"/>
       <c r="M4" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="38"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5" s="32"/>
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
@@ -1674,15 +1588,15 @@
       <c r="F5" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
       <c r="K5" s="8"/>
       <c r="N5" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="38"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6" s="32"/>
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
@@ -1698,11 +1612,11 @@
       <c r="F6" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="39" t="s">
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7" s="33" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -1715,8 +1629,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="39"/>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8" s="33"/>
       <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
@@ -1727,36 +1641,47 @@
         <v>36</v>
       </c>
       <c r="M8" s="30" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="M9" s="29" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
       <c r="M10" s="29" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="M11" t="s">
+        <v>76</v>
+      </c>
+      <c r="N11" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="O11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
-      <c r="C13" s="40" t="s">
+      <c r="C13" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
       <c r="H13" s="20"/>
       <c r="L13" s="8"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>8</v>
       </c>
@@ -1781,13 +1706,13 @@
       <c r="M14" t="s">
         <v>20</v>
       </c>
-      <c r="Q14" s="41" t="s">
+      <c r="Q14" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="R14" s="42"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" s="38" t="s">
+      <c r="R14" s="36"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15" s="32" t="s">
         <v>7</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -1797,17 +1722,17 @@
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="9"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
       <c r="L15" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="M15" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="N15" s="36"/>
-      <c r="O15" s="36"/>
-      <c r="P15" s="37"/>
+      <c r="M15" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="N15" s="41"/>
+      <c r="O15" s="41"/>
+      <c r="P15" s="42"/>
       <c r="Q15" s="8" t="s">
         <v>24</v>
       </c>
@@ -1815,8 +1740,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" s="38"/>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A16" s="32"/>
       <c r="B16" s="3" t="s">
         <v>2</v>
       </c>
@@ -1824,26 +1749,26 @@
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="9"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
       <c r="L16" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="M16" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="37"/>
+      <c r="M16" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="N16" s="41"/>
+      <c r="O16" s="41"/>
+      <c r="P16" s="42"/>
       <c r="Q16" s="8" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="R16" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A17" s="38"/>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A17" s="32"/>
       <c r="B17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1851,26 +1776,26 @@
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="9"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
       <c r="L17" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="M17" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="37"/>
+      <c r="M17" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="N17" s="41"/>
+      <c r="O17" s="41"/>
+      <c r="P17" s="42"/>
       <c r="Q17" s="8" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="R17" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A18" s="38"/>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A18" s="32"/>
       <c r="B18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1878,17 +1803,17 @@
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="9"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
       <c r="L18" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="M18" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="N18" s="36"/>
-      <c r="O18" s="36"/>
-      <c r="P18" s="37"/>
+      <c r="M18" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="N18" s="41"/>
+      <c r="O18" s="41"/>
+      <c r="P18" s="42"/>
       <c r="Q18" s="8" t="s">
         <v>25</v>
       </c>
@@ -1896,8 +1821,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A19" s="39" t="s">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A19" s="33" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -1913,7 +1838,7 @@
         <v>5</v>
       </c>
       <c r="M19" s="17" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="N19" s="14"/>
       <c r="O19" s="14"/>
@@ -1925,8 +1850,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A20" s="39"/>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A20" s="33"/>
       <c r="B20" s="4" t="s">
         <v>6</v>
       </c>
@@ -1940,7 +1865,7 @@
         <v>6</v>
       </c>
       <c r="M20" s="17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N20" s="14"/>
       <c r="O20" s="14"/>
@@ -1952,7 +1877,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="Q21" s="8" t="s">
         <v>28</v>
       </c>
@@ -1960,7 +1885,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>16</v>
       </c>
@@ -1973,10 +1898,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="I23" s="21"/>
       <c r="J23" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>17</v>
@@ -1988,10 +1913,10 @@
         <v>12</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Q23" s="8" t="s">
         <v>30</v>
@@ -2000,9 +1925,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="G24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I24" s="22" t="s">
         <v>0</v>
@@ -2014,7 +1939,7 @@
         <v>23</v>
       </c>
       <c r="L24" s="26" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="M24" s="26">
         <f>K24+J24</f>
@@ -2034,7 +1959,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="I25" s="22" t="s">
         <v>1</v>
       </c>
@@ -2065,7 +1990,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="I26" s="22" t="s">
         <v>2</v>
       </c>
@@ -2076,7 +2001,7 @@
         <v>34</v>
       </c>
       <c r="L26" s="26" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="M26" s="26">
         <f>K26+J26</f>
@@ -2096,7 +2021,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="I27" s="22" t="s">
         <v>3</v>
       </c>
@@ -2107,7 +2032,7 @@
         <v>35</v>
       </c>
       <c r="L27" s="26" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="M27" s="26">
         <f>K27+J27</f>
@@ -2127,7 +2052,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="I28" s="22" t="s">
         <v>4</v>
       </c>
@@ -2152,7 +2077,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="I29" s="22" t="s">
         <v>5</v>
       </c>
@@ -2177,7 +2102,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="I30" s="22" t="s">
         <v>6</v>
       </c>
@@ -2188,7 +2113,7 @@
         <v>40</v>
       </c>
       <c r="L30" s="26" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="M30" s="26">
         <f>K30+J30</f>
@@ -2202,9 +2127,9 @@
         <v>365</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="N31" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O31" s="24">
         <f>SUM(O24:O30)*1.0625</f>
@@ -2232,5 +2157,6 @@
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>